--- a/teaching/traditional_assets/database/data/south_korea/south_korea_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/south_korea/south_korea_reinsurance.xlsx
@@ -590,74 +590,80 @@
           <t>Reinsurance</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.009519999999999999</v>
+      </c>
+      <c r="E2">
+        <v>-0.0411</v>
+      </c>
       <c r="G2">
-        <v>0.01828242931445779</v>
+        <v>0.0299210316597841</v>
       </c>
       <c r="H2">
-        <v>0.01828242931445779</v>
+        <v>0.0299210316597841</v>
       </c>
       <c r="I2">
-        <v>0.01781314770638614</v>
+        <v>0.03607911323625299</v>
       </c>
       <c r="J2">
-        <v>0.01362569354402912</v>
+        <v>0.02749801928148581</v>
       </c>
       <c r="K2">
-        <v>144.8</v>
+        <v>128.4</v>
       </c>
       <c r="L2">
-        <v>0.02831332368698917</v>
+        <v>0.02325581395348838</v>
       </c>
       <c r="M2">
-        <v>26.3121</v>
+        <v>134.0063</v>
       </c>
       <c r="N2">
-        <v>0.02906771984091913</v>
+        <v>0.1611621166566446</v>
       </c>
       <c r="O2">
-        <v>0.1817133977900552</v>
+        <v>1.04366277258567</v>
       </c>
       <c r="P2">
-        <v>26.3121</v>
+        <v>49.2063</v>
       </c>
       <c r="Q2">
-        <v>0.02906771984091913</v>
+        <v>0.05917775105231509</v>
       </c>
       <c r="R2">
-        <v>0.1817133977900552</v>
+        <v>0.3832266355140186</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>84.80000000000001</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.6328060695653861</v>
       </c>
       <c r="U2">
         <v>0.002</v>
       </c>
       <c r="V2">
-        <v>2.209456473707468e-06</v>
+        <v>2.405291641611546e-06</v>
       </c>
       <c r="W2">
-        <v>0.07207565953210553</v>
+        <v>0.06408144931876029</v>
       </c>
       <c r="X2">
-        <v>0.07153665291869789</v>
+        <v>0.07441555875720936</v>
       </c>
       <c r="Y2">
-        <v>0.0005390066134076388</v>
+        <v>-0.01033410943844906</v>
       </c>
       <c r="Z2">
-        <v>2.545647133546176</v>
+        <v>2.755505071123492</v>
       </c>
       <c r="AA2">
-        <v>0.03468620771293637</v>
+        <v>0.07577093157598573</v>
       </c>
       <c r="AB2">
-        <v>0.07153665291869789</v>
+        <v>0.07441555875720936</v>
       </c>
       <c r="AC2">
-        <v>-0.03685044520576152</v>
+        <v>0.001355372818776374</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -678,28 +684,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-2.209461355416163e-06</v>
+        <v>-2.405297427053342e-06</v>
       </c>
       <c r="AK2">
-        <v>-9.981544124913035e-07</v>
+        <v>-9.477334480722626e-07</v>
       </c>
       <c r="AL2">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="AM2">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>263.2947976878613</v>
+        <v>579.0697674418604</v>
       </c>
       <c r="AP2">
-        <v>-2.085505735140772e-05</v>
+        <v>-9.70873786407767e-06</v>
       </c>
       <c r="AQ2">
-        <v>263.2947976878613</v>
+        <v>579.0697674418604</v>
       </c>
     </row>
     <row r="3">
@@ -718,74 +724,80 @@
           <t>Reinsurance</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.009519999999999999</v>
+      </c>
+      <c r="E3">
+        <v>-0.0411</v>
+      </c>
       <c r="G3">
-        <v>0.01828242931445779</v>
+        <v>0.0299210316597841</v>
       </c>
       <c r="H3">
-        <v>0.01828242931445779</v>
+        <v>0.0299210316597841</v>
       </c>
       <c r="I3">
-        <v>0.01781314770638614</v>
+        <v>0.03607911323625299</v>
       </c>
       <c r="J3">
-        <v>0.01362569354402912</v>
+        <v>0.02749801928148581</v>
       </c>
       <c r="K3">
-        <v>144.8</v>
+        <v>128.4</v>
       </c>
       <c r="L3">
-        <v>0.02831332368698917</v>
+        <v>0.02325581395348838</v>
       </c>
       <c r="M3">
-        <v>26.3121</v>
+        <v>134.0063</v>
       </c>
       <c r="N3">
-        <v>0.02906771984091913</v>
+        <v>0.1611621166566446</v>
       </c>
       <c r="O3">
-        <v>0.1817133977900552</v>
+        <v>1.04366277258567</v>
       </c>
       <c r="P3">
-        <v>26.3121</v>
+        <v>49.2063</v>
       </c>
       <c r="Q3">
-        <v>0.02906771984091913</v>
+        <v>0.05917775105231509</v>
       </c>
       <c r="R3">
-        <v>0.1817133977900552</v>
+        <v>0.3832266355140186</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>84.80000000000001</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.6328060695653861</v>
       </c>
       <c r="U3">
         <v>0.002</v>
       </c>
       <c r="V3">
-        <v>2.209456473707468e-06</v>
+        <v>2.405291641611546e-06</v>
       </c>
       <c r="W3">
-        <v>0.07207565953210553</v>
+        <v>0.06408144931876029</v>
       </c>
       <c r="X3">
-        <v>0.07153665291869789</v>
+        <v>0.07441555875720936</v>
       </c>
       <c r="Y3">
-        <v>0.0005390066134076388</v>
+        <v>-0.01033410943844906</v>
       </c>
       <c r="Z3">
-        <v>2.545647133546176</v>
+        <v>2.755505071123492</v>
       </c>
       <c r="AA3">
-        <v>0.03468620771293637</v>
+        <v>0.07577093157598573</v>
       </c>
       <c r="AB3">
-        <v>0.07153665291869789</v>
+        <v>0.07441555875720936</v>
       </c>
       <c r="AC3">
-        <v>-0.03685044520576152</v>
+        <v>0.001355372818776374</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -806,28 +818,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-2.209461355416163e-06</v>
+        <v>-2.405297427053342e-06</v>
       </c>
       <c r="AK3">
-        <v>-9.981544124913035e-07</v>
+        <v>-9.477334480722626e-07</v>
       </c>
       <c r="AL3">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="AM3">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>263.2947976878613</v>
+        <v>579.0697674418604</v>
       </c>
       <c r="AP3">
-        <v>-2.085505735140772e-05</v>
+        <v>-9.70873786407767e-06</v>
       </c>
       <c r="AQ3">
-        <v>263.2947976878613</v>
+        <v>579.0697674418604</v>
       </c>
     </row>
   </sheetData>
